--- a/data/trans_orig/P2A_ner_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5270</v>
+        <v>4455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18618</v>
+        <v>17175</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03586658311844415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01930321197120574</v>
+        <v>0.01631908673110269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06819479310542217</v>
+        <v>0.06291084125858783</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>16797</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10100</v>
+        <v>10135</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25758</v>
+        <v>26066</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06439658417995732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03872166138290797</v>
+        <v>0.03885602741437497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09875096688061094</v>
+        <v>0.09993025859763224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>26589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17387</v>
+        <v>17925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37693</v>
+        <v>37596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04980633859867524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03256986269691329</v>
+        <v>0.03357673838656355</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07060560804421688</v>
+        <v>0.07042383880540673</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>263218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254392</v>
+        <v>255835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267740</v>
+        <v>268555</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9641334168815558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9318052068945794</v>
+        <v>0.9370891587414121</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9806967880287942</v>
+        <v>0.9836809132688974</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>229</v>
@@ -836,19 +836,19 @@
         <v>244041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235080</v>
+        <v>234772</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250738</v>
+        <v>250703</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9356034158200427</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9012490331193896</v>
+        <v>0.9000697414023674</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9612783386170922</v>
+        <v>0.9611439725856249</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>490</v>
@@ -857,19 +857,19 @@
         <v>507259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496155</v>
+        <v>496252</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>516461</v>
+        <v>515923</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9501936614013248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9293943919557834</v>
+        <v>0.9295761611945933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9674301373030868</v>
+        <v>0.9664232616134365</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>18512</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11465</v>
+        <v>11223</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30226</v>
+        <v>28434</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03754391865967786</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02325172776344307</v>
+        <v>0.02276145507911936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06130002845624962</v>
+        <v>0.05766689217512203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>28562</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18102</v>
+        <v>18670</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40042</v>
+        <v>39811</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05667616302492077</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03591990564714109</v>
+        <v>0.03704713731932653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07945742806759352</v>
+        <v>0.07899788619432471</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -1003,19 +1003,19 @@
         <v>47074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35079</v>
+        <v>35381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62465</v>
+        <v>61205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04721437285440156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03518417812072764</v>
+        <v>0.03548651279985431</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06265189994943753</v>
+        <v>0.06138792968585943</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>474563</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462849</v>
+        <v>464641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481610</v>
+        <v>481852</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9624560813403221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9386999715437502</v>
+        <v>0.9423331078248779</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9767482722365569</v>
+        <v>0.9772385449208806</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>471</v>
@@ -1053,19 +1053,19 @@
         <v>475387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463907</v>
+        <v>464138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485847</v>
+        <v>485279</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9433238369750793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9205425719324065</v>
+        <v>0.9210021138056753</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9640800943528589</v>
+        <v>0.9629528626806735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>918</v>
@@ -1074,19 +1074,19 @@
         <v>949950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>934559</v>
+        <v>935819</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>961945</v>
+        <v>961643</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9527856271455984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9373481000505627</v>
+        <v>0.9386120703141405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9648158218792724</v>
+        <v>0.9645134872001453</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5224</v>
+        <v>4901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00303918981315176</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01638419735563572</v>
+        <v>0.01537037404106379</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>2893</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7863</v>
+        <v>8042</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008625971971940458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002716405667360274</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02344253770053225</v>
+        <v>0.02397575855511186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1220,19 +1220,19 @@
         <v>3862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8798</v>
+        <v>8943</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005903310750314483</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001496732798235038</v>
+        <v>0.001480206031669547</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01344728995420171</v>
+        <v>0.01366947736836755</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>317877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313622</v>
+        <v>313945</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1258,7 +1258,7 @@
         <v>0.9969608101868482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9836158026443639</v>
+        <v>0.9846296259589362</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>332519</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327549</v>
+        <v>327370</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334501</v>
+        <v>335412</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9913740280280595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9765574622994676</v>
+        <v>0.9760242414448864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972835943326397</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -1291,19 +1291,19 @@
         <v>650396</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645460</v>
+        <v>645315</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653279</v>
+        <v>653290</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9940966892496855</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.986552710045798</v>
+        <v>0.9863305226316315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.998503267201765</v>
+        <v>0.9985197939683305</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>6918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3243</v>
+        <v>2958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14371</v>
+        <v>14213</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01928848886173776</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00904209551945212</v>
+        <v>0.008246725118052795</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04006843390456517</v>
+        <v>0.03962727880740539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1416,19 +1416,19 @@
         <v>14927</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9368</v>
+        <v>8540</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23315</v>
+        <v>22993</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04018380945019123</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02521841922844516</v>
+        <v>0.0229905824931092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0627667868899406</v>
+        <v>0.06189941575128909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1437,19 +1437,19 @@
         <v>21845</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14197</v>
+        <v>14129</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31859</v>
+        <v>32020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02991909237999954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01944485513534182</v>
+        <v>0.01935092165155513</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04363499540085779</v>
+        <v>0.04385504926307075</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>351753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344300</v>
+        <v>344458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355428</v>
+        <v>355713</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807115111382623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9599315660954348</v>
+        <v>0.9603727211925949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990957904480548</v>
+        <v>0.9917532748819474</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -1487,19 +1487,19 @@
         <v>356529</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348141</v>
+        <v>348463</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362088</v>
+        <v>362916</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9598161905498088</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9372332131100595</v>
+        <v>0.9381005842487112</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9747815807715549</v>
+        <v>0.9770094175068909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>723</v>
@@ -1508,19 +1508,19 @@
         <v>708282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>698268</v>
+        <v>698107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>715930</v>
+        <v>715998</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9700809076200004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9563650045991422</v>
+        <v>0.9561449507369292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9805551448646581</v>
+        <v>0.9806490783484448</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8126</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3665</v>
+        <v>4200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14570</v>
+        <v>15205</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03996691223649824</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01802728327508711</v>
+        <v>0.02065844677010703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07166523564211856</v>
+        <v>0.07478596408020467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>14838</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8187</v>
+        <v>8220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23692</v>
+        <v>24279</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0714507929049043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03942127608636432</v>
+        <v>0.03958280556769341</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1140851423773893</v>
+        <v>0.1169109607695043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1654,19 +1654,19 @@
         <v>22964</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15114</v>
+        <v>15519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32917</v>
+        <v>34779</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0558758553350489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03677494205505864</v>
+        <v>0.03776193229220675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08009557170243696</v>
+        <v>0.08462435980865986</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>195182</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188738</v>
+        <v>188103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199643</v>
+        <v>199108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9600330877635017</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9283347643578816</v>
+        <v>0.9252140359197959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9819727167249129</v>
+        <v>0.9793415532298931</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1704,19 +1704,19 @@
         <v>192830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183976</v>
+        <v>183389</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199481</v>
+        <v>199448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9285492070950957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8859148576226107</v>
+        <v>0.8830890392304955</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9605787239136356</v>
+        <v>0.9604171944323066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>381</v>
@@ -1725,19 +1725,19 @@
         <v>388012</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>378059</v>
+        <v>376197</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>395862</v>
+        <v>395457</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9441241446649511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9199044282975631</v>
+        <v>0.9153756401913404</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9632250579449414</v>
+        <v>0.9622380677077934</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3912</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8868</v>
+        <v>8995</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01444562361295169</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003597747332368461</v>
+        <v>0.00360254633453894</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03274452770892543</v>
+        <v>0.03321543743750122</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1850,19 +1850,19 @@
         <v>10120</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5074</v>
+        <v>5138</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18527</v>
+        <v>17459</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03638341499404635</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01824138910419884</v>
+        <v>0.01847236106147199</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06660983222086142</v>
+        <v>0.06276989504551307</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1871,19 +1871,19 @@
         <v>14032</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7847</v>
+        <v>8150</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22684</v>
+        <v>23086</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02556104291229144</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01429422051888373</v>
+        <v>0.01484675933968538</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0413223302165131</v>
+        <v>0.04205516965791619</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>266899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261943</v>
+        <v>261816</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269837</v>
+        <v>269835</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9855543763870483</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9672554722910746</v>
+        <v>0.9667845625624988</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964022526676315</v>
+        <v>0.9963974536654611</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -1921,19 +1921,19 @@
         <v>268024</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>259617</v>
+        <v>260685</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273070</v>
+        <v>273006</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9636165850059536</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9333901677791387</v>
+        <v>0.9372301049544868</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9817586108958012</v>
+        <v>0.9815276389385279</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -1942,19 +1942,19 @@
         <v>534923</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>526271</v>
+        <v>525869</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>541108</v>
+        <v>540805</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9744389570877086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.958677669783487</v>
+        <v>0.9579448303420839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9857057794811163</v>
+        <v>0.9851532406603147</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>10890</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6009</v>
+        <v>5566</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17931</v>
+        <v>17710</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01770581488761399</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009769961779915442</v>
+        <v>0.009050329687395831</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02915458208516421</v>
+        <v>0.02879617659313381</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2067,19 +2067,19 @@
         <v>21799</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14080</v>
+        <v>14024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33364</v>
+        <v>32505</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03415621363836682</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02206114158642532</v>
+        <v>0.02197362710845669</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05227594439968767</v>
+        <v>0.05093062989630397</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2088,19 +2088,19 @@
         <v>32689</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22550</v>
+        <v>23485</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45101</v>
+        <v>44417</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02608322627951417</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01799337412340709</v>
+        <v>0.01873899365520811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03598757514159207</v>
+        <v>0.03544181109047515</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>604137</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>597096</v>
+        <v>597317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>609018</v>
+        <v>609461</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.982294185112386</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9708454179148358</v>
+        <v>0.9712038234068662</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9902300382200845</v>
+        <v>0.9909496703126042</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>598</v>
@@ -2138,19 +2138,19 @@
         <v>616420</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>604855</v>
+        <v>605714</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>624139</v>
+        <v>624195</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9658437863616331</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9477240556003123</v>
+        <v>0.9490693701036959</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9779388584135746</v>
+        <v>0.9780263728915433</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1184</v>
@@ -2159,19 +2159,19 @@
         <v>1220557</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1208145</v>
+        <v>1208829</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1230696</v>
+        <v>1229761</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9739167737204858</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9640124248584079</v>
+        <v>0.9645581889095252</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9820066258765928</v>
+        <v>0.9812610063447919</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>31800</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22266</v>
+        <v>21480</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43561</v>
+        <v>46408</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04275410173825359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02993511125067206</v>
+        <v>0.02887861158693075</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05856562437059747</v>
+        <v>0.06239361560696275</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -2284,19 +2284,19 @@
         <v>45019</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32491</v>
+        <v>32092</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59942</v>
+        <v>60134</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05745781019903161</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04146831499386364</v>
+        <v>0.04095947852110588</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07650409786527747</v>
+        <v>0.07674881412441914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -2305,19 +2305,19 @@
         <v>76819</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58381</v>
+        <v>60506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94200</v>
+        <v>94990</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05029713306536104</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03822513748326381</v>
+        <v>0.03961629841124945</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06167737492816378</v>
+        <v>0.06219463108670952</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>711995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>700234</v>
+        <v>697387</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>721529</v>
+        <v>722315</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9572458982617464</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9414343756294026</v>
+        <v>0.9376063843930376</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9700648887493281</v>
+        <v>0.9711213884130694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>705</v>
@@ -2355,19 +2355,19 @@
         <v>738492</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>723569</v>
+        <v>723377</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>751020</v>
+        <v>751419</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9425421898009684</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9234959021347225</v>
+        <v>0.9232511858755797</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9585316850061359</v>
+        <v>0.959040521478894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1411</v>
@@ -2376,19 +2376,19 @@
         <v>1450487</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1433106</v>
+        <v>1432316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1468925</v>
+        <v>1466800</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.949702866934639</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9383226250718363</v>
+        <v>0.937805368913292</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9617748625167363</v>
+        <v>0.9603837015887509</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>90919</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02774833934472318</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>150</v>
@@ -2501,19 +2501,19 @@
         <v>154955</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04585544588936078</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>241</v>
@@ -2522,19 +2522,19 @@
         <v>245873</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03694152896909649</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3185624</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3165176</v>
+        <v>3164028</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3204249</v>
+        <v>3204406</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9722516606552768</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9660108608377128</v>
+        <v>0.9656605339204534</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9779359928768343</v>
+        <v>0.9779837945246829</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3147</v>
@@ -2572,19 +2572,19 @@
         <v>3224242</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3198128</v>
+        <v>3195809</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3246760</v>
+        <v>3247909</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9541445541106393</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9464165810223676</v>
+        <v>0.9457301892790161</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9608082737161299</v>
+        <v>0.9611481755595074</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6270</v>
@@ -2593,19 +2593,19 @@
         <v>6409868</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6376757</v>
+        <v>6376512</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6436583</v>
+        <v>6440970</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9630584710309035</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9580837011175858</v>
+        <v>0.9580469378180735</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9670722784618707</v>
+        <v>0.9677314452113284</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>10192</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5508</v>
+        <v>5378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17853</v>
+        <v>18094</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03457929508443554</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01868746351868718</v>
+        <v>0.01824611901788623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06057151756248144</v>
+        <v>0.06139063782938325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2962,19 +2962,19 @@
         <v>18201</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10825</v>
+        <v>10265</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29200</v>
+        <v>28217</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06336471321887831</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03768426424199395</v>
+        <v>0.03573755225310434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1016543801268104</v>
+        <v>0.09823199203372743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2983,19 +2983,19 @@
         <v>28393</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19217</v>
+        <v>19784</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39664</v>
+        <v>39878</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04878669804837314</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03301977647148559</v>
+        <v>0.0339948683564948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06815390617406572</v>
+        <v>0.06852105857125777</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>284546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276885</v>
+        <v>276644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289230</v>
+        <v>289360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9654207049155644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9394284824375186</v>
+        <v>0.9386093621706172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9813125364813129</v>
+        <v>0.9817538809821138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -3033,19 +3033,19 @@
         <v>269044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258045</v>
+        <v>259028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276420</v>
+        <v>276980</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9366352867811217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8983456198731896</v>
+        <v>0.9017680079662729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.962315735758006</v>
+        <v>0.9642624477468957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>510</v>
@@ -3054,19 +3054,19 @@
         <v>553590</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>542319</v>
+        <v>542105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562766</v>
+        <v>562199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9512133019516269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9318460938259343</v>
+        <v>0.9314789414287423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9669802235285143</v>
+        <v>0.9660051316435053</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>14898</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8018</v>
+        <v>8643</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28099</v>
+        <v>27504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02947023060115765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01586081437933755</v>
+        <v>0.01709609915429852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05558408522035251</v>
+        <v>0.05440676433686911</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -3179,19 +3179,19 @@
         <v>31297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20985</v>
+        <v>21010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45399</v>
+        <v>43411</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05975459797353265</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04006635611865726</v>
+        <v>0.04011433230212635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08667885963033302</v>
+        <v>0.08288272908284096</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -3200,19 +3200,19 @@
         <v>46195</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33238</v>
+        <v>33502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62408</v>
+        <v>62604</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04488071448929806</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03229231323258788</v>
+        <v>0.03254880534926027</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06063226052764619</v>
+        <v>0.060822799218955</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>490629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477428</v>
+        <v>478023</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497509</v>
+        <v>496884</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9705297693988424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9444159147796468</v>
+        <v>0.94559323566313</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9841391856206624</v>
+        <v>0.9829039008457015</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -3250,19 +3250,19 @@
         <v>492468</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478366</v>
+        <v>480354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>502780</v>
+        <v>502755</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9402454020264673</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9133211403696675</v>
+        <v>0.9171172709171592</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9599336438813428</v>
+        <v>0.9598856676978738</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>911</v>
@@ -3271,19 +3271,19 @@
         <v>983097</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>966884</v>
+        <v>966688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>996054</v>
+        <v>995790</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9551192855107019</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9393677394723539</v>
+        <v>0.9391772007810449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9677076867674121</v>
+        <v>0.9674511946507397</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>7658</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3710</v>
+        <v>3788</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14192</v>
+        <v>15283</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02363393490846139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01144757747191903</v>
+        <v>0.01168851938507694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04379529324885784</v>
+        <v>0.04716280639457684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3396,19 +3396,19 @@
         <v>6195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2187</v>
+        <v>2158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13068</v>
+        <v>12789</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01816513156738255</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006411771695538175</v>
+        <v>0.006329105940097825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03831904936708282</v>
+        <v>0.03750157698490646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3417,19 +3417,19 @@
         <v>13853</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7865</v>
+        <v>7701</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22290</v>
+        <v>22631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02082974504619954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01182533316614198</v>
+        <v>0.01157965106377938</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03351615713025014</v>
+        <v>0.03402789080136388</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>316388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309854</v>
+        <v>308763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320336</v>
+        <v>320258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9763660650915386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9562047067511423</v>
+        <v>0.9528371936054232</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9885524225280811</v>
+        <v>0.9883114806149231</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -3467,19 +3467,19 @@
         <v>334825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327952</v>
+        <v>328231</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338833</v>
+        <v>338862</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9818348684326175</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9616809506329158</v>
+        <v>0.9624984230150945</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9935882283044618</v>
+        <v>0.9936708940599023</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -3488,19 +3488,19 @@
         <v>651213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>642776</v>
+        <v>642435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>657201</v>
+        <v>657365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9791702549538005</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9664838428697499</v>
+        <v>0.9659721091986361</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.988174666833858</v>
+        <v>0.9884203489362205</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>9113</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4003</v>
+        <v>4324</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16626</v>
+        <v>16748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02436775045327158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01070426346625289</v>
+        <v>0.0115628040714134</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04445722862456367</v>
+        <v>0.04478402263704391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -3613,19 +3613,19 @@
         <v>33680</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23987</v>
+        <v>24093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45845</v>
+        <v>45254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08659229959555816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06167101004092065</v>
+        <v>0.06194276981425545</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.117869524724669</v>
+        <v>0.1163499690397753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -3634,19 +3634,19 @@
         <v>42793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31265</v>
+        <v>32167</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56958</v>
+        <v>56975</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05609045328855924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04098026676161095</v>
+        <v>0.04216246116241827</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.074656306784423</v>
+        <v>0.07467919874252135</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>364869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357356</v>
+        <v>357234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369979</v>
+        <v>369658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9756322495467284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9555427713754364</v>
+        <v>0.9552159773629562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9892957365337471</v>
+        <v>0.9884371959285867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>337</v>
@@ -3684,19 +3684,19 @@
         <v>355271</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343106</v>
+        <v>343697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364964</v>
+        <v>364858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9134077004044419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8821304752753309</v>
+        <v>0.8836500309602248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9383289899590793</v>
+        <v>0.9380572301857445</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>672</v>
@@ -3705,19 +3705,19 @@
         <v>720140</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>705975</v>
+        <v>705958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>731668</v>
+        <v>730766</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9439095467114408</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9253436932155767</v>
+        <v>0.925320801257479</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9590197332383891</v>
+        <v>0.9578375388375817</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>20342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12968</v>
+        <v>13512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29578</v>
+        <v>30691</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09567178136041112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06099077332010451</v>
+        <v>0.06355273632764051</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1391155030994584</v>
+        <v>0.1443498441042389</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3830,19 +3830,19 @@
         <v>30554</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21495</v>
+        <v>20533</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41627</v>
+        <v>42088</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.139138444560072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09788538337315328</v>
+        <v>0.09350465003692111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1895669545747052</v>
+        <v>0.1916631507046686</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -3851,19 +3851,19 @@
         <v>50895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39451</v>
+        <v>39613</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66617</v>
+        <v>67353</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1177557434466363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09127648369524048</v>
+        <v>0.09165297843570083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1541309054107482</v>
+        <v>0.1558348096931807</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>192276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183040</v>
+        <v>181927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199650</v>
+        <v>199106</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9043282186395889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8608844969005418</v>
+        <v>0.8556501558957612</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9390092266798956</v>
+        <v>0.9364472636723596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -3901,19 +3901,19 @@
         <v>189037</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177964</v>
+        <v>177503</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198096</v>
+        <v>199058</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8608615554399279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8104330454252948</v>
+        <v>0.8083368492953314</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9021146166268468</v>
+        <v>0.9064953499630789</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>360</v>
@@ -3922,19 +3922,19 @@
         <v>381314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365592</v>
+        <v>364856</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392758</v>
+        <v>392596</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8822442565533638</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8458690945892517</v>
+        <v>0.8441651903068196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9087235163047596</v>
+        <v>0.9083470215642994</v>
       </c>
     </row>
     <row r="18">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5421</v>
+        <v>4240</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003440324875053127</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01978670276580322</v>
+        <v>0.01547665661690767</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -4047,19 +4047,19 @@
         <v>10082</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4972</v>
+        <v>4763</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17666</v>
+        <v>17558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03600437520176165</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01775636146326582</v>
+        <v>0.01700892442611443</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06308508792866718</v>
+        <v>0.06269999218688602</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -4068,19 +4068,19 @@
         <v>11025</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5989</v>
+        <v>5776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19520</v>
+        <v>19983</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01990015514494056</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01080945523278002</v>
+        <v>0.01042529062326365</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03523396737016143</v>
+        <v>0.03607023060212867</v>
       </c>
     </row>
     <row r="20">
@@ -4097,7 +4097,7 @@
         <v>273038</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268560</v>
+        <v>269741</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4106,7 +4106,7 @@
         <v>0.9965596751249469</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9802132972341971</v>
+        <v>0.9845233433830914</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4118,19 +4118,19 @@
         <v>269949</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262365</v>
+        <v>262473</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275059</v>
+        <v>275268</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9639956247982383</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9369149120713328</v>
+        <v>0.937300007813114</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9822436385367341</v>
+        <v>0.9829910755738854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>519</v>
@@ -4139,19 +4139,19 @@
         <v>542987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>534492</v>
+        <v>534029</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>548023</v>
+        <v>548236</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9800998448550594</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9647660326298377</v>
+        <v>0.9639297693978711</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9891905447672199</v>
+        <v>0.9895747093767363</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>18323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10722</v>
+        <v>10931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27932</v>
+        <v>26886</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02764523592346489</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01617759560194382</v>
+        <v>0.01649287173342688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04214381273784688</v>
+        <v>0.04056466224751303</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4264,19 +4264,19 @@
         <v>15801</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8961</v>
+        <v>9126</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26302</v>
+        <v>27121</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0227724351769107</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01291422524150065</v>
+        <v>0.01315245062924824</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03790653481914787</v>
+        <v>0.03908784667882943</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -4285,19 +4285,19 @@
         <v>34124</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23870</v>
+        <v>24069</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47114</v>
+        <v>47073</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02515304583862773</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01759463314132369</v>
+        <v>0.01774128102716447</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03472842013330321</v>
+        <v>0.03469812592514579</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>644465</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>634856</v>
+        <v>635902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>652066</v>
+        <v>651857</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9723547640765351</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9578561872621537</v>
+        <v>0.9594353377524876</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9838224043980562</v>
+        <v>0.9835071282665734</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>622</v>
@@ -4335,19 +4335,19 @@
         <v>678052</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>667551</v>
+        <v>666732</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>684892</v>
+        <v>684727</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9772275648230893</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9620934651808524</v>
+        <v>0.9609121533211714</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9870857747584995</v>
+        <v>0.9868475493707521</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1221</v>
@@ -4356,19 +4356,19 @@
         <v>1322517</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1309527</v>
+        <v>1309568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1332771</v>
+        <v>1332572</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9748469541613722</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9652715798666968</v>
+        <v>0.9653018740748538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9824053668586761</v>
+        <v>0.9822587189728356</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>23749</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14144</v>
+        <v>14294</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37991</v>
+        <v>37407</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03048318675194308</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01815433144917169</v>
+        <v>0.01834628239267512</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04876286406208316</v>
+        <v>0.04801328326650406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -4481,19 +4481,19 @@
         <v>29753</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20291</v>
+        <v>20731</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41469</v>
+        <v>43770</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03611431237759002</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02462969375338902</v>
+        <v>0.02516376216017515</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05033541081457808</v>
+        <v>0.05312899691559585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -4502,19 +4502,19 @@
         <v>53502</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38634</v>
+        <v>39775</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69543</v>
+        <v>70423</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03337736066228573</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02410172947662251</v>
+        <v>0.02481340403695058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04338404798485235</v>
+        <v>0.04393327695609481</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>755349</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>741107</v>
+        <v>741691</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764954</v>
+        <v>764804</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9695168132480569</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9512371359379168</v>
+        <v>0.9519867167334959</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9818456685508283</v>
+        <v>0.9816537176073249</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>729</v>
@@ -4552,19 +4552,19 @@
         <v>794100</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>782384</v>
+        <v>780083</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>803562</v>
+        <v>803122</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.96388568762241</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9496645891854216</v>
+        <v>0.9468710030844039</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9753703062466108</v>
+        <v>0.9748362378398249</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1426</v>
@@ -4573,19 +4573,19 @@
         <v>1549449</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1533408</v>
+        <v>1532528</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1564317</v>
+        <v>1563176</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9666226393377143</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9566159520151476</v>
+        <v>0.9560667230439053</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9758982705233774</v>
+        <v>0.9751865959630496</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>105218</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>84832</v>
+        <v>84998</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>126411</v>
+        <v>127064</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03070460341549243</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02475570453097915</v>
+        <v>0.0248041763386545</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03688922285453251</v>
+        <v>0.03707978731597227</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>167</v>
@@ -4698,19 +4698,19 @@
         <v>175563</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>149937</v>
+        <v>148645</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>203161</v>
+        <v>201216</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04933885643742431</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04213703710780124</v>
+        <v>0.04177398391423003</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05709469365034277</v>
+        <v>0.05654822531355622</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>266</v>
@@ -4719,19 +4719,19 @@
         <v>280781</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>247905</v>
+        <v>248314</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>316904</v>
+        <v>316905</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04019717278217891</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03549056294749885</v>
+        <v>0.03554914311377162</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04536867160329198</v>
+        <v>0.04536884175255296</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3321561</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3300368</v>
+        <v>3299715</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3341947</v>
+        <v>3341781</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9692953965845076</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9631107771454676</v>
+        <v>0.9629202126840281</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9752442954690209</v>
+        <v>0.9751958236613455</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3131</v>
@@ -4769,19 +4769,19 @@
         <v>3382746</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3355148</v>
+        <v>3357093</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3408372</v>
+        <v>3409664</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9506611435625757</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9429053063496572</v>
+        <v>0.9434517746864437</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9578629628921982</v>
+        <v>0.95822601608577</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6241</v>
@@ -4790,19 +4790,19 @@
         <v>6704307</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6668184</v>
+        <v>6668183</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6737183</v>
+        <v>6736774</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9598028272178211</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9546313283967081</v>
+        <v>0.9546311582474473</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9645094370525013</v>
+        <v>0.9644508568862286</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>22004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14194</v>
+        <v>13950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32221</v>
+        <v>31798</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07490558178564223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04831785824880126</v>
+        <v>0.04748615117593471</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1096831632986163</v>
+        <v>0.1082440900197014</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -5159,19 +5159,19 @@
         <v>46635</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34545</v>
+        <v>35534</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60724</v>
+        <v>62312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1615319201357965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.119654457133519</v>
+        <v>0.123079954997801</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2103340834360445</v>
+        <v>0.2158338987067127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -5180,19 +5180,19 @@
         <v>68639</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52844</v>
+        <v>53390</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84708</v>
+        <v>84872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1178426280559248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09072457650219311</v>
+        <v>0.09166199228872471</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1454300479423017</v>
+        <v>0.1457120631847082</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>271757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261540</v>
+        <v>261963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279567</v>
+        <v>279811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9250944182143578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8903168367013837</v>
+        <v>0.8917559099802986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9516821417511987</v>
+        <v>0.9525138488240654</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>233</v>
@@ -5230,19 +5230,19 @@
         <v>242068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227979</v>
+        <v>226391</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254158</v>
+        <v>253169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8384680798642036</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7896659165639552</v>
+        <v>0.7841661012932876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8803455428664809</v>
+        <v>0.8769200450021994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>478</v>
@@ -5251,19 +5251,19 @@
         <v>513825</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>497756</v>
+        <v>497592</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529620</v>
+        <v>529074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8821573719440752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8545699520576983</v>
+        <v>0.8542879368152918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9092754234978072</v>
+        <v>0.9083380077112753</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>16683</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10082</v>
+        <v>10032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26167</v>
+        <v>26243</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03319511754654478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02006132945683018</v>
+        <v>0.01996034809647724</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05206605368204431</v>
+        <v>0.05221798660908361</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -5376,19 +5376,19 @@
         <v>52942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40120</v>
+        <v>40003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68048</v>
+        <v>68343</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1012121633180951</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0766992665469404</v>
+        <v>0.07647454454606871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.130089262844519</v>
+        <v>0.1306544053741797</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -5397,19 +5397,19 @@
         <v>69625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55305</v>
+        <v>55323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87281</v>
+        <v>88063</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0678836600631755</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05392130601681229</v>
+        <v>0.05393894652796768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08509724083250451</v>
+        <v>0.08586022634391979</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>485892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>476408</v>
+        <v>476332</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>492493</v>
+        <v>492543</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9668048824534552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9479339463179557</v>
+        <v>0.9477820133909168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9799386705431702</v>
+        <v>0.9800396519035233</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>436</v>
@@ -5447,19 +5447,19 @@
         <v>470142</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>455036</v>
+        <v>454741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>482964</v>
+        <v>483081</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8987878366819049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8699107371554811</v>
+        <v>0.8693455946258202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9233007334530599</v>
+        <v>0.9235254554539313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>895</v>
@@ -5468,19 +5468,19 @@
         <v>956034</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>938378</v>
+        <v>937596</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>970354</v>
+        <v>970336</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9321163399368245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9149027591674955</v>
+        <v>0.9141397736560803</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9460786939831877</v>
+        <v>0.9460610534720324</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>6083</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12389</v>
+        <v>12852</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01909365995239751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00888929691034355</v>
+        <v>0.008886472268269923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03889007294698731</v>
+        <v>0.0403440662658787</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -5593,19 +5593,19 @@
         <v>30899</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20860</v>
+        <v>21807</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43202</v>
+        <v>44027</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09187626934369074</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06202544628436873</v>
+        <v>0.0648432076121713</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1284598306716518</v>
+        <v>0.1309133576653004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -5614,19 +5614,19 @@
         <v>36981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26594</v>
+        <v>26942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50034</v>
+        <v>50791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05647099779458679</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04060934185870222</v>
+        <v>0.04114145845258083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0764025317687571</v>
+        <v>0.07755803400475909</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>312482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306176</v>
+        <v>305713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315733</v>
+        <v>315734</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9809063400476025</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9611099270530129</v>
+        <v>0.9596559337341216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911107030896565</v>
+        <v>0.9911135277317301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>302</v>
@@ -5664,19 +5664,19 @@
         <v>305410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293107</v>
+        <v>292282</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315449</v>
+        <v>314502</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9081237306563092</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8715401693283482</v>
+        <v>0.8690866423346997</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9379745537156313</v>
+        <v>0.9351567923878288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>631</v>
@@ -5685,19 +5685,19 @@
         <v>617893</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604840</v>
+        <v>604083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>628280</v>
+        <v>627932</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9435290022054132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9235974682312429</v>
+        <v>0.922441965995241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9593906581412978</v>
+        <v>0.9588585415474192</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>17312</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10414</v>
+        <v>10183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27438</v>
+        <v>26531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0467943561496896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02814782165467628</v>
+        <v>0.0275239932562923</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0741628176935489</v>
+        <v>0.07171108006693457</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5810,19 +5810,19 @@
         <v>32952</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23189</v>
+        <v>22652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44231</v>
+        <v>45618</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08508518288092534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05987581297319103</v>
+        <v>0.05848939936548114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1142079380395402</v>
+        <v>0.1177903075259816</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -5831,19 +5831,19 @@
         <v>50264</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37240</v>
+        <v>37622</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65764</v>
+        <v>65369</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06637764443005501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04917783093358023</v>
+        <v>0.04968202975003819</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08684619670693454</v>
+        <v>0.08632507562298275</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>352652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342526</v>
+        <v>343433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359550</v>
+        <v>359781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9532056438503104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.925837182306451</v>
+        <v>0.9282889199330653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9718521783453238</v>
+        <v>0.9724760067437075</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -5881,19 +5881,19 @@
         <v>354331</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343052</v>
+        <v>341665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364094</v>
+        <v>364631</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9149148171190746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8857920619604597</v>
+        <v>0.8822096924740184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9401241870268088</v>
+        <v>0.9415106006345189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>664</v>
@@ -5902,19 +5902,19 @@
         <v>706983</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>691483</v>
+        <v>691878</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>720007</v>
+        <v>719625</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.933622355569945</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9131538032930655</v>
+        <v>0.9136749243770173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9508221690664198</v>
+        <v>0.9503179702499618</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>15543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8798</v>
+        <v>8682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24227</v>
+        <v>24309</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07358718536910461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04165080510524466</v>
+        <v>0.04110462664185598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1146984954915531</v>
+        <v>0.1150865644712445</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -6027,19 +6027,19 @@
         <v>30053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21053</v>
+        <v>20770</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40599</v>
+        <v>41591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1374889129090566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09631552372452822</v>
+        <v>0.09501841293433488</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1857331497180026</v>
+        <v>0.1902713079963653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -6048,19 +6048,19 @@
         <v>45596</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33314</v>
+        <v>34247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57730</v>
+        <v>58924</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1060856194940221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07750946971072471</v>
+        <v>0.07968053646239751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1343168547185827</v>
+        <v>0.1370948761697669</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>195678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186994</v>
+        <v>186912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202423</v>
+        <v>202539</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9264128146308954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8853015045084469</v>
+        <v>0.8849134355287557</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9583491948947553</v>
+        <v>0.958895373358144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>193</v>
@@ -6098,19 +6098,19 @@
         <v>188534</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177988</v>
+        <v>176996</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197534</v>
+        <v>197817</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8625110870909434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8142668502819972</v>
+        <v>0.8097286920036346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9036844762754718</v>
+        <v>0.904981587065665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -6119,19 +6119,19 @@
         <v>384212</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>372078</v>
+        <v>370884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>396494</v>
+        <v>395561</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8939143805059778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8656831452814172</v>
+        <v>0.8629051238302332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9224905302892753</v>
+        <v>0.9203194635376029</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>11583</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6601</v>
+        <v>6230</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20344</v>
+        <v>19667</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04402280279743184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02508881786545835</v>
+        <v>0.02367887536937213</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07731777716718888</v>
+        <v>0.07474365379949564</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -6244,19 +6244,19 @@
         <v>32973</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23642</v>
+        <v>23488</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44830</v>
+        <v>45425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1207309359183684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08656372487777186</v>
+        <v>0.08600150226141376</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1641437686523969</v>
+        <v>0.1663210411543848</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -6265,19 +6265,19 @@
         <v>44557</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31434</v>
+        <v>32838</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57128</v>
+        <v>58385</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08309154060734802</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05862024776888033</v>
+        <v>0.06123797931168493</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1065353267109305</v>
+        <v>0.1088794090429925</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>251540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242779</v>
+        <v>243456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256522</v>
+        <v>256893</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9559771972025681</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9226822228328113</v>
+        <v>0.9252563462005042</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9749111821345418</v>
+        <v>0.9763211246306273</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -6315,19 +6315,19 @@
         <v>240142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228285</v>
+        <v>227690</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>249473</v>
+        <v>249627</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8792690640816316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8358562313476031</v>
+        <v>0.8336789588456153</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9134362751222281</v>
+        <v>0.9139984977385863</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>479</v>
@@ -6336,19 +6336,19 @@
         <v>491681</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479110</v>
+        <v>477853</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>504804</v>
+        <v>503400</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.916908459392652</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8934646732890695</v>
+        <v>0.8911205909570077</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.94137975223112</v>
+        <v>0.9387620206883152</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>27521</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17944</v>
+        <v>18715</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42001</v>
+        <v>39752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04191716214275301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02732980062176992</v>
+        <v>0.02850414916375208</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06397153437738613</v>
+        <v>0.0605454296287176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -6461,19 +6461,19 @@
         <v>76585</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59182</v>
+        <v>59878</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95191</v>
+        <v>95449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1107855033113776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08561021283981471</v>
+        <v>0.0866169917730029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.137699965586332</v>
+        <v>0.1380725639493087</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -6482,19 +6482,19 @@
         <v>104106</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84603</v>
+        <v>83608</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126319</v>
+        <v>125621</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07723874875540383</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06276854636202274</v>
+        <v>0.06203083955381505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09371837734673935</v>
+        <v>0.09320099292726829</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>629037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>614557</v>
+        <v>616806</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638614</v>
+        <v>637843</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.958082837857247</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9360284656226132</v>
+        <v>0.9394545703712824</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.97267019937823</v>
+        <v>0.971495850836248</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>579</v>
@@ -6532,19 +6532,19 @@
         <v>614709</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>596103</v>
+        <v>595845</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>632112</v>
+        <v>631416</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8892144966886224</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.862300034413668</v>
+        <v>0.8619274360506913</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9143897871601854</v>
+        <v>0.9133830082269971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1135</v>
@@ -6553,19 +6553,19 @@
         <v>1243746</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1221533</v>
+        <v>1222231</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1263249</v>
+        <v>1264244</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9227612512445962</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9062816226532604</v>
+        <v>0.9067990070727319</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9372314536379768</v>
+        <v>0.9379691604461851</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>36444</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26686</v>
+        <v>26317</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49135</v>
+        <v>50040</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04680769445977156</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03427516944656396</v>
+        <v>0.0338005258040831</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0631084100804641</v>
+        <v>0.06427064099604766</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -6678,19 +6678,19 @@
         <v>87759</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70999</v>
+        <v>70981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>109934</v>
+        <v>108788</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1062247770084961</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0859374916621528</v>
+        <v>0.08591615897593723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1330648753704615</v>
+        <v>0.1316777832954538</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -6699,19 +6699,19 @@
         <v>124203</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>102956</v>
+        <v>101479</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>148592</v>
+        <v>146255</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07739715262682673</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06415679083291002</v>
+        <v>0.06323660809283443</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09259493584839128</v>
+        <v>0.09113849833198694</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>742139</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>729448</v>
+        <v>728543</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>751897</v>
+        <v>752266</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9531923055402284</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9368915899195359</v>
+        <v>0.9357293590039522</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9657248305534361</v>
+        <v>0.9661994741959169</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>680</v>
@@ -6749,19 +6749,19 @@
         <v>738408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>716233</v>
+        <v>717379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>755168</v>
+        <v>755186</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8937752229915039</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8669351246295385</v>
+        <v>0.8683222167045462</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.914062508337847</v>
+        <v>0.9140838410240628</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1393</v>
@@ -6770,19 +6770,19 @@
         <v>1480547</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1456158</v>
+        <v>1458495</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1501794</v>
+        <v>1503271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9226028473731732</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9074050641516089</v>
+        <v>0.908861501668013</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.93584320916709</v>
+        <v>0.9367633919071654</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>153173</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>129984</v>
+        <v>130964</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>178133</v>
+        <v>181696</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04512600752087264</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03829418966934558</v>
+        <v>0.03858304280917845</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05247921054564728</v>
+        <v>0.05352888622643755</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>356</v>
@@ -6895,19 +6895,19 @@
         <v>390800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>354857</v>
+        <v>357109</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>434049</v>
+        <v>434428</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1102538922748162</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1001136734966296</v>
+        <v>0.1007488491624178</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1224556491772921</v>
+        <v>0.1225624818039114</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>505</v>
@@ -6916,19 +6916,19 @@
         <v>543973</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>496437</v>
+        <v>500292</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>587730</v>
+        <v>594454</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07839479329151855</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07154409376801985</v>
+        <v>0.07209966493577387</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08470088887638755</v>
+        <v>0.08566991677627277</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3241177</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3216217</v>
+        <v>3212654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3264366</v>
+        <v>3263386</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9548739924791274</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9475207894543526</v>
+        <v>0.9464711137735625</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9617058103306544</v>
+        <v>0.9614169571908215</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2982</v>
@@ -6966,19 +6966,19 @@
         <v>3153742</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3110493</v>
+        <v>3110114</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3189685</v>
+        <v>3187433</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8897461077251838</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8775443508227079</v>
+        <v>0.8774375181960885</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8998863265033703</v>
+        <v>0.8992511508375821</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6064</v>
@@ -6987,19 +6987,19 @@
         <v>6394919</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6351162</v>
+        <v>6344438</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6442455</v>
+        <v>6438600</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9216052067084815</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9152991111236125</v>
+        <v>0.9143300832237272</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9284559062319802</v>
+        <v>0.9279003350642262</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>10188</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5446</v>
+        <v>4856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17270</v>
+        <v>17180</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0319542611462741</v>
+        <v>0.03195426114627412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01708001854555772</v>
+        <v>0.01522870557651151</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05416373071546688</v>
+        <v>0.05388307423717376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -7356,19 +7356,19 @@
         <v>7951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4578</v>
+        <v>4749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13121</v>
+        <v>13283</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0251550684547246</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01448593138099454</v>
+        <v>0.015024420329082</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04151528454224093</v>
+        <v>0.042027486332959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -7377,19 +7377,19 @@
         <v>18139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11367</v>
+        <v>11952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25464</v>
+        <v>26988</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02856957511274502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01790374781100904</v>
+        <v>0.0188248308937625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04010695865022267</v>
+        <v>0.04250641025338282</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>308657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>301575</v>
+        <v>301665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313399</v>
+        <v>313989</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9680457388537257</v>
+        <v>0.9680457388537259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9458362692845326</v>
+        <v>0.9461169257628265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.982919981454442</v>
+        <v>0.9847712944234883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>523</v>
@@ -7427,19 +7427,19 @@
         <v>308110</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302940</v>
+        <v>302778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311483</v>
+        <v>311312</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9748449315452755</v>
+        <v>0.9748449315452753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9584847154577589</v>
+        <v>0.9579725136670408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9855140686190057</v>
+        <v>0.9849755796709179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>843</v>
@@ -7448,19 +7448,19 @@
         <v>616767</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609442</v>
+        <v>607918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>623539</v>
+        <v>622954</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9714304248872551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9598930413497775</v>
+        <v>0.9574935897466171</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.982096252188991</v>
+        <v>0.9811751691062377</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>13176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6591</v>
+        <v>6980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22579</v>
+        <v>22078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02483092689840541</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01242158998992135</v>
+        <v>0.01315286229718816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04254964426581643</v>
+        <v>0.04160640315339475</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -7573,19 +7573,19 @@
         <v>32015</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23731</v>
+        <v>23444</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43487</v>
+        <v>42257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05858213094565959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0434232151112284</v>
+        <v>0.04289877917989032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07957506525157163</v>
+        <v>0.0773246902868978</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -7594,19 +7594,19 @@
         <v>45191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33656</v>
+        <v>34819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58445</v>
+        <v>59817</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04195480961753342</v>
+        <v>0.04195480961753341</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03124613399474141</v>
+        <v>0.03232547906409668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05425936537866076</v>
+        <v>0.05553353866594333</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>517471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508068</v>
+        <v>508569</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>524056</v>
+        <v>523667</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9751690731015946</v>
+        <v>0.9751690731015947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9574503557341838</v>
+        <v>0.9583935968466056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9875784100100787</v>
+        <v>0.9868471377028126</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>670</v>
@@ -7644,19 +7644,19 @@
         <v>514479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503007</v>
+        <v>504237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522763</v>
+        <v>523050</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9414178690543403</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.920424934748428</v>
+        <v>0.9226753097131025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9565767848887714</v>
+        <v>0.9571012208201096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1040</v>
@@ -7665,19 +7665,19 @@
         <v>1031950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1018696</v>
+        <v>1017324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1043485</v>
+        <v>1042322</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9580451903824666</v>
+        <v>0.9580451903824667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9457406346213393</v>
+        <v>0.9444664613340567</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9687538660052585</v>
+        <v>0.9676745209359033</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>10557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5137</v>
+        <v>5339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19690</v>
+        <v>18924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03340821507017643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01625656504303384</v>
+        <v>0.01689623859246467</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06231087242911905</v>
+        <v>0.05988658278610229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -7790,19 +7790,19 @@
         <v>18316</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12108</v>
+        <v>13269</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25590</v>
+        <v>27035</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05139467718758831</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03397604008752302</v>
+        <v>0.03723274587367212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07180540651737165</v>
+        <v>0.07585994532350762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -7811,19 +7811,19 @@
         <v>28873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20340</v>
+        <v>20200</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39569</v>
+        <v>38952</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04294164757724412</v>
+        <v>0.04294164757724411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03025030757175338</v>
+        <v>0.03004247111887257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0588494748823777</v>
+        <v>0.05793122088200196</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>305436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296303</v>
+        <v>297069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310856</v>
+        <v>310654</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9665917849298237</v>
+        <v>0.9665917849298234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.937689127570881</v>
+        <v>0.9401134172138972</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9837434349569661</v>
+        <v>0.9831037614075347</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>506</v>
@@ -7861,19 +7861,19 @@
         <v>338065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330791</v>
+        <v>329346</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344273</v>
+        <v>343112</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9486053228124118</v>
+        <v>0.9486053228124117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9281945934826284</v>
+        <v>0.9241400546764924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9660239599124769</v>
+        <v>0.9627672541263278</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>855</v>
@@ -7882,19 +7882,19 @@
         <v>643502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>632806</v>
+        <v>633423</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652035</v>
+        <v>652175</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9570583524227561</v>
+        <v>0.9570583524227557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9411505251176224</v>
+        <v>0.9420687791179981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9697496924282468</v>
+        <v>0.9699575288811274</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>19590</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10817</v>
+        <v>11431</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32518</v>
+        <v>34163</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05249846458853617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0289878256437614</v>
+        <v>0.03063302140830113</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08714463351413301</v>
+        <v>0.09155466503215089</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -8007,19 +8007,19 @@
         <v>18437</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11354</v>
+        <v>11156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29128</v>
+        <v>29057</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04369282390013288</v>
+        <v>0.04369282390013289</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02690838063536662</v>
+        <v>0.02643792881366517</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06903046882338842</v>
+        <v>0.06886254646223862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -8028,19 +8028,19 @@
         <v>38026</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26578</v>
+        <v>27263</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52581</v>
+        <v>54407</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04782532971463586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03342739837965408</v>
+        <v>0.03428831429807011</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06613132776321286</v>
+        <v>0.06842739330953587</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>353555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340627</v>
+        <v>338982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>362328</v>
+        <v>361714</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9475015354114638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9128553664858666</v>
+        <v>0.9084453349678491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9710121743562383</v>
+        <v>0.9693669785916986</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>576</v>
@@ -8078,19 +8078,19 @@
         <v>403524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>392833</v>
+        <v>392904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>410607</v>
+        <v>410805</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.956307176099867</v>
+        <v>0.9563071760998672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9309695311766111</v>
+        <v>0.9311374535377618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9730916193646333</v>
+        <v>0.973562071186335</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>851</v>
@@ -8099,19 +8099,19 @@
         <v>757081</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>742526</v>
+        <v>740700</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>768529</v>
+        <v>767844</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9521746702853642</v>
+        <v>0.952174670285364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9338686722367872</v>
+        <v>0.9315726066904643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9665726016203458</v>
+        <v>0.9657116857019299</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>2217</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5972</v>
+        <v>5876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01077811058180536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003497821411084424</v>
+        <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02903759274287544</v>
+        <v>0.02856898096881682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -8224,19 +8224,19 @@
         <v>6555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3659</v>
+        <v>3738</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10719</v>
+        <v>10703</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02863458596115488</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01598530925777215</v>
+        <v>0.01632835938463872</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04682490091029636</v>
+        <v>0.04675421858028579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -8245,19 +8245,19 @@
         <v>8772</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5371</v>
+        <v>5208</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13875</v>
+        <v>13775</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02018406481619642</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01236001693459679</v>
+        <v>0.01198338289812751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0319282171143275</v>
+        <v>0.03169768331318317</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>203448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199693</v>
+        <v>199789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204946</v>
+        <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9892218894181944</v>
+        <v>0.9892218894181947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9709624072571245</v>
+        <v>0.9714310190311831</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9965021785889158</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>480</v>
@@ -8295,19 +8295,19 @@
         <v>222363</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218199</v>
+        <v>218215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225259</v>
+        <v>225180</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9713654140388452</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9531750990897038</v>
+        <v>0.9532457814197142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9840146907422279</v>
+        <v>0.9836716406153614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>756</v>
@@ -8316,19 +8316,19 @@
         <v>425810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420707</v>
+        <v>420807</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429211</v>
+        <v>429374</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9798159351838035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9680717828856724</v>
+        <v>0.9683023166868171</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9876399830654032</v>
+        <v>0.9880166171018726</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>10132</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5711</v>
+        <v>5781</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16264</v>
+        <v>16138</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0374277836527488</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02109712318932603</v>
+        <v>0.02135582466084689</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06008052220235076</v>
+        <v>0.05961353307557847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -8441,19 +8441,19 @@
         <v>10135</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6371</v>
+        <v>6590</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16012</v>
+        <v>15876</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03842697874686937</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0241550811758747</v>
+        <v>0.02498642193341234</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06070716801458548</v>
+        <v>0.06019218125149527</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -8462,19 +8462,19 @@
         <v>20267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14480</v>
+        <v>13722</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28654</v>
+        <v>27851</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03792087825911321</v>
+        <v>0.0379208782591132</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.027093318200492</v>
+        <v>0.02567529508167984</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05361239913064999</v>
+        <v>0.05211020807800532</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>260575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254443</v>
+        <v>254569</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264996</v>
+        <v>264926</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9625722163472512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9399194777976498</v>
+        <v>0.9403864669244214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.978902876810674</v>
+        <v>0.9786441753391529</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>440</v>
@@ -8512,19 +8512,19 @@
         <v>253615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247738</v>
+        <v>247874</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257379</v>
+        <v>257160</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9615730212531308</v>
+        <v>0.9615730212531304</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9392928319854144</v>
+        <v>0.9398078187485046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9758449188241253</v>
+        <v>0.9750135780665875</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>797</v>
@@ -8533,19 +8533,19 @@
         <v>514190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505803</v>
+        <v>506606</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>519977</v>
+        <v>520735</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9620791217408869</v>
+        <v>0.9620791217408867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9463876008693499</v>
+        <v>0.9478897919219947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.972906681799508</v>
+        <v>0.9743247049183201</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>36845</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24395</v>
+        <v>25489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52930</v>
+        <v>54397</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05119600084449004</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03389718071313473</v>
+        <v>0.03541694173451669</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07354572049813048</v>
+        <v>0.07558433866691301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -8658,19 +8658,19 @@
         <v>51805</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40168</v>
+        <v>40301</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64338</v>
+        <v>65621</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06709936499124862</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0520267303534617</v>
+        <v>0.05219937444995828</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08333361610675445</v>
+        <v>0.08499483554957636</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -8679,19 +8679,19 @@
         <v>88650</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73037</v>
+        <v>71393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109890</v>
+        <v>108452</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05942683768410816</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0489606298105993</v>
+        <v>0.04785868376101583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07366536002816038</v>
+        <v>0.07270123171509744</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>682842</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>666757</v>
+        <v>665290</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>695292</v>
+        <v>694198</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9488039991555101</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9264542795018694</v>
+        <v>0.9244156613330871</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9661028192868654</v>
+        <v>0.9645830582654833</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>892</v>
@@ -8729,19 +8729,19 @@
         <v>720252</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>707719</v>
+        <v>706436</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>731889</v>
+        <v>731756</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9329006350087512</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9166663838932454</v>
+        <v>0.9150051644504235</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9479732696465381</v>
+        <v>0.9478006255500415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1459</v>
@@ -8750,19 +8750,19 @@
         <v>1403094</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1381854</v>
+        <v>1383292</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1418707</v>
+        <v>1420351</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9405731623158917</v>
+        <v>0.9405731623158919</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9263346399718398</v>
+        <v>0.9272987682849025</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9510393701894009</v>
+        <v>0.952141316238984</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>19469</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11995</v>
+        <v>11626</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29009</v>
+        <v>29190</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02439475401202985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01502987773418934</v>
+        <v>0.01456814786012314</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03634924581737575</v>
+        <v>0.03657624365609086</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -8875,19 +8875,19 @@
         <v>34515</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26086</v>
+        <v>25330</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44644</v>
+        <v>45134</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04151818127444436</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03137912457286221</v>
+        <v>0.03046927810991523</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0537019650695454</v>
+        <v>0.05429161710523853</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -8896,19 +8896,19 @@
         <v>53984</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43033</v>
+        <v>43656</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68132</v>
+        <v>68926</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03313123024809507</v>
+        <v>0.03313123024809508</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02641046271799963</v>
+        <v>0.02679284585367289</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04181398622349535</v>
+        <v>0.04230166616986313</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>778603</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>769063</v>
+        <v>768882</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>786077</v>
+        <v>786446</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.97560524598797</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9636507541826244</v>
+        <v>0.963423756343909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9849701222658108</v>
+        <v>0.9854318521398768</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1014</v>
@@ -8946,19 +8946,19 @@
         <v>796816</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>786687</v>
+        <v>786197</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>805245</v>
+        <v>806001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9584818187255556</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9462980349304545</v>
+        <v>0.9457083828947616</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9686208754271377</v>
+        <v>0.9695307218900847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1756</v>
@@ -8967,19 +8967,19 @@
         <v>1575419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1561271</v>
+        <v>1560477</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1586370</v>
+        <v>1585747</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9668687697519049</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9581860137765046</v>
+        <v>0.9576983338301375</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9735895372820005</v>
+        <v>0.973207154146327</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>122174</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>100078</v>
+        <v>99050</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>145596</v>
+        <v>146347</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03458307426502808</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02832844147691267</v>
+        <v>0.02803759447404517</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0412130449731771</v>
+        <v>0.04142558111685722</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>266</v>
@@ -9092,19 +9092,19 @@
         <v>179728</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>158850</v>
+        <v>159963</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>202201</v>
+        <v>203868</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04809481176350057</v>
+        <v>0.04809481176350056</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04250782549045935</v>
+        <v>0.04280583955611527</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05410845225639486</v>
+        <v>0.05455467979734376</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>386</v>
@@ -9113,19 +9113,19 @@
         <v>301902</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>269082</v>
+        <v>271286</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>335313</v>
+        <v>334753</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04152870229499092</v>
+        <v>0.04152870229499091</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03701404221082222</v>
+        <v>0.03731728425569844</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04612465339566971</v>
+        <v>0.04604764883757766</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3410588</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3387166</v>
+        <v>3386415</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3432684</v>
+        <v>3433712</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.965416925734972</v>
+        <v>0.9654169257349721</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.958786955026823</v>
+        <v>0.9585744188831422</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9716715585230867</v>
+        <v>0.9719624055259545</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5101</v>
@@ -9163,19 +9163,19 @@
         <v>3557226</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3534753</v>
+        <v>3533086</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3578104</v>
+        <v>3576991</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9519051882364995</v>
+        <v>0.9519051882364994</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.945891547743605</v>
+        <v>0.9454453202026558</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9574921745095405</v>
+        <v>0.9571941604438844</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8357</v>
@@ -9184,19 +9184,19 @@
         <v>6967814</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6934403</v>
+        <v>6934963</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7000634</v>
+        <v>6998430</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9584712977050091</v>
+        <v>0.9584712977050089</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9538753466043304</v>
+        <v>0.9539523511624225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9629859577891779</v>
+        <v>0.9626827157443019</v>
       </c>
     </row>
     <row r="30">
